--- a/Lista VEPS.xlsx
+++ b/Lista VEPS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin Bustos\Desktop\RPA - Contatech 2\Generar VEPS\VEPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Bot-Generador-de-VEPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8B35D9-F815-4B08-8C48-941B7035EA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCB8292-D00E-4317-9A5A-3379FAAAE695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nro</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Interbanking</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Martinb204</t>
   </si>
 </sst>
 </file>
@@ -179,7 +185,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Control"/>
@@ -201,7 +207,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -1814,7 +1820,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,24 +1875,35 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>20147130202</v>
+      </c>
+      <c r="D2">
+        <v>20147130202</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D2,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I2" s="3" t="e">
+      <c r="I2" s="3" t="str">
         <f>VLOOKUP(C2,[2]Hoja1!$G:$I,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J2" s="4" t="e">
+        <v>Martinb204</v>
+      </c>
+      <c r="J2" s="4" t="str">
         <f t="shared" ref="J2:J33" si="1">IF(EXACT(I2,F2),"ü","x")</f>
-        <v>#N/A</v>
+        <v>ü</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" ref="K2:K33" si="2">ROW(A2)</f>
@@ -3424,7 +3441,7 @@
         <v>#N/A</v>
       </c>
       <c r="J66" s="4" t="e">
-        <f t="shared" ref="J66:J97" si="6">IF(EXACT(I66,F66),"ü","x")</f>
+        <f t="shared" ref="J66:J70" si="6">IF(EXACT(I66,F66),"ü","x")</f>
         <v>#N/A</v>
       </c>
       <c r="K66" s="3">

--- a/Lista VEPS.xlsx
+++ b/Lista VEPS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Bot-Generador-de-VEPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379A1C6B-3347-49E9-A0EF-DFEC2028EBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFA54A8-D940-47A7-AF54-C0BB643D6D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nro</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Interbanking</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>XN</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1820,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,6 +1931,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="4" t="str">
@@ -1948,6 +1957,9 @@
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>

--- a/Lista VEPS.xlsx
+++ b/Lista VEPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Bot-Generador-de-VEPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFA54A8-D940-47A7-AF54-C0BB643D6D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49EE06-7968-4C31-94E0-D2827DFA1C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$K$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$L$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Nro</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>XN</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Ubicación de descarga desde el Disco hasta el \ Final</t>
+  </si>
+  <si>
+    <t>C:\Users\Agustin Bustos\Desktop\Test\</t>
   </si>
 </sst>
 </file>
@@ -1816,11 +1825,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,13 +1840,13 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1860,19 +1869,22 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v/>
@@ -1882,24 +1894,27 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D2,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I2" s="3" t="e">
+      <c r="J2" s="3" t="e">
         <f>VLOOKUP(C2,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="4" t="e">
-        <f t="shared" ref="J2:J33" si="1">IF(EXACT(I2,F2),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K2" s="3">
-        <f t="shared" ref="K2:K33" si="2">ROW(A2)</f>
+      <c r="K2" s="4" t="e">
+        <f t="shared" ref="K2:K33" si="1">IF(EXACT(J2,F2),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:L33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1909,24 +1924,27 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="4" t="str">
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D3,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I3" s="3" t="e">
+      <c r="J3" s="3" t="e">
         <f>VLOOKUP(C3,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J3" s="4" t="e">
+      <c r="K3" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1936,24 +1954,25 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="2"/>
+      <c r="I4" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D4,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I4" s="3" t="e">
+      <c r="J4" s="3" t="e">
         <f>VLOOKUP(C4,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J4" s="4" t="e">
+      <c r="K4" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1963,1581 +1982,1646 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="2"/>
+      <c r="I5" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D5,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I5" s="3" t="e">
+      <c r="J5" s="3" t="e">
         <f>VLOOKUP(C5,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="4" t="e">
+      <c r="K5" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="2"/>
+      <c r="I6" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D6,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I6" s="3" t="e">
+      <c r="J6" s="3" t="e">
         <f>VLOOKUP(C6,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J6" s="4" t="e">
+      <c r="K6" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="2"/>
+      <c r="I7" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D7,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I7" s="3" t="e">
+      <c r="J7" s="3" t="e">
         <f>VLOOKUP(C7,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J7" s="4" t="e">
+      <c r="K7" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="2"/>
+      <c r="I8" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D8,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I8" s="3" t="e">
+      <c r="J8" s="3" t="e">
         <f>VLOOKUP(C8,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J8" s="4" t="e">
+      <c r="K8" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="2"/>
+      <c r="I9" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D9,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="3" t="e">
+      <c r="J9" s="3" t="e">
         <f>VLOOKUP(C9,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J9" s="4" t="e">
+      <c r="K9" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="4" t="str">
+      <c r="H10" s="2"/>
+      <c r="I10" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D10,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I10" s="3" t="e">
+      <c r="J10" s="3" t="e">
         <f>VLOOKUP(C10,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="4" t="e">
+      <c r="K10" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4" t="str">
+      <c r="H11" s="2"/>
+      <c r="I11" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D11,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="3" t="e">
+      <c r="J11" s="3" t="e">
         <f>VLOOKUP(C11,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="4" t="e">
+      <c r="K11" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="4" t="str">
+      <c r="H12" s="2"/>
+      <c r="I12" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D12,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I12" s="3" t="e">
+      <c r="J12" s="3" t="e">
         <f>VLOOKUP(C12,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="4" t="e">
+      <c r="K12" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="4" t="str">
+      <c r="H13" s="2"/>
+      <c r="I13" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D13,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="3" t="e">
+      <c r="J13" s="3" t="e">
         <f>VLOOKUP(C13,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="4" t="e">
+      <c r="K13" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="4" t="str">
+      <c r="H14" s="2"/>
+      <c r="I14" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D14,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I14" s="3" t="e">
+      <c r="J14" s="3" t="e">
         <f>VLOOKUP(C14,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="4" t="e">
+      <c r="K14" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="4" t="str">
+      <c r="H15" s="2"/>
+      <c r="I15" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D15,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="3" t="e">
+      <c r="J15" s="3" t="e">
         <f>VLOOKUP(C15,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="4" t="e">
+      <c r="K15" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="4" t="str">
+      <c r="H16" s="2"/>
+      <c r="I16" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D16,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I16" s="3" t="e">
+      <c r="J16" s="3" t="e">
         <f>VLOOKUP(C16,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="4" t="e">
+      <c r="K16" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="4" t="str">
+      <c r="H17" s="2"/>
+      <c r="I17" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D17,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="3" t="e">
+      <c r="J17" s="3" t="e">
         <f>VLOOKUP(C17,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="4" t="e">
+      <c r="K17" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="4" t="str">
+      <c r="H18" s="2"/>
+      <c r="I18" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D18,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I18" s="3" t="e">
+      <c r="J18" s="3" t="e">
         <f>VLOOKUP(C18,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="4" t="e">
+      <c r="K18" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="4" t="str">
+      <c r="H19" s="2"/>
+      <c r="I19" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D19,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="3" t="e">
+      <c r="J19" s="3" t="e">
         <f>VLOOKUP(C19,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="4" t="e">
+      <c r="K19" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="4" t="str">
+      <c r="H20" s="2"/>
+      <c r="I20" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D20,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I20" s="3" t="e">
+      <c r="J20" s="3" t="e">
         <f>VLOOKUP(C20,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="4" t="e">
+      <c r="K20" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="4" t="str">
+      <c r="H21" s="2"/>
+      <c r="I21" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D21,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="3" t="e">
+      <c r="J21" s="3" t="e">
         <f>VLOOKUP(C21,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="4" t="e">
+      <c r="K21" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="4" t="str">
+      <c r="H22" s="2"/>
+      <c r="I22" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D22,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I22" s="3" t="e">
+      <c r="J22" s="3" t="e">
         <f>VLOOKUP(C22,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J22" s="4" t="e">
+      <c r="K22" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="4" t="str">
+      <c r="H23" s="2"/>
+      <c r="I23" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D23,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="3" t="e">
+      <c r="J23" s="3" t="e">
         <f>VLOOKUP(C23,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="4" t="e">
+      <c r="K23" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="4" t="str">
+      <c r="H24" s="2"/>
+      <c r="I24" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D24,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I24" s="3" t="e">
+      <c r="J24" s="3" t="e">
         <f>VLOOKUP(C24,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="4" t="e">
+      <c r="K24" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="4" t="str">
+      <c r="H25" s="2"/>
+      <c r="I25" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D25,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="3" t="e">
+      <c r="J25" s="3" t="e">
         <f>VLOOKUP(C25,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" s="4" t="e">
+      <c r="K25" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="4" t="str">
+      <c r="H26" s="2"/>
+      <c r="I26" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D26,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I26" s="3" t="e">
+      <c r="J26" s="3" t="e">
         <f>VLOOKUP(C26,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J26" s="4" t="e">
+      <c r="K26" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="4" t="str">
+      <c r="H27" s="2"/>
+      <c r="I27" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D27,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I27" s="3" t="e">
+      <c r="J27" s="3" t="e">
         <f>VLOOKUP(C27,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J27" s="4" t="e">
+      <c r="K27" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="4" t="str">
+      <c r="H28" s="2"/>
+      <c r="I28" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D28,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I28" s="3" t="e">
+      <c r="J28" s="3" t="e">
         <f>VLOOKUP(C28,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="4" t="e">
+      <c r="K28" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="4" t="str">
+      <c r="H29" s="2"/>
+      <c r="I29" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D29,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I29" s="3" t="e">
+      <c r="J29" s="3" t="e">
         <f>VLOOKUP(C29,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J29" s="4" t="e">
+      <c r="K29" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="4" t="str">
+      <c r="H30" s="2"/>
+      <c r="I30" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D30,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I30" s="3" t="e">
+      <c r="J30" s="3" t="e">
         <f>VLOOKUP(C30,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J30" s="4" t="e">
+      <c r="K30" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="4" t="str">
+      <c r="H31" s="2"/>
+      <c r="I31" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D31,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I31" s="3" t="e">
+      <c r="J31" s="3" t="e">
         <f>VLOOKUP(C31,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J31" s="4" t="e">
+      <c r="K31" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="4" t="str">
+      <c r="H32" s="2"/>
+      <c r="I32" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D32,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I32" s="3" t="e">
+      <c r="J32" s="3" t="e">
         <f>VLOOKUP(C32,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J32" s="4" t="e">
+      <c r="K32" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="4" t="str">
+      <c r="H33" s="2"/>
+      <c r="I33" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D33,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I33" s="3" t="e">
+      <c r="J33" s="3" t="e">
         <f>VLOOKUP(C33,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J33" s="4" t="e">
+      <c r="K33" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A70" si="3">RIGHT(D34,1)</f>
         <v/>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="4" t="str">
+      <c r="H34" s="2"/>
+      <c r="I34" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D34,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I34" s="3" t="e">
+      <c r="J34" s="3" t="e">
         <f>VLOOKUP(C34,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J34" s="4" t="e">
-        <f t="shared" ref="J34:J65" si="4">IF(EXACT(I34,F34),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" ref="K34:K70" si="5">ROW(A34)</f>
+      <c r="K34" s="4" t="e">
+        <f t="shared" ref="K34:K65" si="4">IF(EXACT(J34,F34),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" ref="L34:L70" si="5">ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="4" t="str">
+      <c r="H35" s="2"/>
+      <c r="I35" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D35,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I35" s="3" t="e">
+      <c r="J35" s="3" t="e">
         <f>VLOOKUP(C35,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J35" s="4" t="e">
+      <c r="K35" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="4" t="str">
+      <c r="H36" s="2"/>
+      <c r="I36" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D36,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I36" s="3" t="e">
+      <c r="J36" s="3" t="e">
         <f>VLOOKUP(C36,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J36" s="4" t="e">
+      <c r="K36" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K36" s="3">
+      <c r="L36" s="3">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="4" t="str">
+      <c r="H37" s="2"/>
+      <c r="I37" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D37,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I37" s="3" t="e">
+      <c r="J37" s="3" t="e">
         <f>VLOOKUP(C37,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J37" s="4" t="e">
+      <c r="K37" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="4" t="str">
+      <c r="H38" s="2"/>
+      <c r="I38" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D38,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I38" s="3" t="e">
+      <c r="J38" s="3" t="e">
         <f>VLOOKUP(C38,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J38" s="4" t="e">
+      <c r="K38" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K38" s="3">
+      <c r="L38" s="3">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="4" t="str">
+      <c r="H39" s="2"/>
+      <c r="I39" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D39,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I39" s="3" t="e">
+      <c r="J39" s="3" t="e">
         <f>VLOOKUP(C39,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J39" s="4" t="e">
+      <c r="K39" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K39" s="3">
+      <c r="L39" s="3">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="4" t="str">
+      <c r="H40" s="2"/>
+      <c r="I40" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D40,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I40" s="3" t="e">
+      <c r="J40" s="3" t="e">
         <f>VLOOKUP(C40,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J40" s="4" t="e">
+      <c r="K40" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K40" s="3">
+      <c r="L40" s="3">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="4" t="str">
+      <c r="H41" s="2"/>
+      <c r="I41" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D41,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I41" s="3" t="e">
+      <c r="J41" s="3" t="e">
         <f>VLOOKUP(C41,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J41" s="4" t="e">
+      <c r="K41" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="4" t="str">
+      <c r="H42" s="2"/>
+      <c r="I42" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D42,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I42" s="3" t="e">
+      <c r="J42" s="3" t="e">
         <f>VLOOKUP(C42,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J42" s="4" t="e">
+      <c r="K42" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="4" t="str">
+      <c r="H43" s="2"/>
+      <c r="I43" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D43,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I43" s="3" t="e">
+      <c r="J43" s="3" t="e">
         <f>VLOOKUP(C43,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J43" s="4" t="e">
+      <c r="K43" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="4" t="str">
+      <c r="H44" s="2"/>
+      <c r="I44" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D44,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I44" s="3" t="e">
+      <c r="J44" s="3" t="e">
         <f>VLOOKUP(C44,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J44" s="4" t="e">
+      <c r="K44" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="4" t="str">
+      <c r="H45" s="2"/>
+      <c r="I45" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D45,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I45" s="3" t="e">
+      <c r="J45" s="3" t="e">
         <f>VLOOKUP(C45,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J45" s="4" t="e">
+      <c r="K45" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="4" t="str">
+      <c r="H46" s="2"/>
+      <c r="I46" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D46,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I46" s="3" t="e">
+      <c r="J46" s="3" t="e">
         <f>VLOOKUP(C46,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J46" s="4" t="e">
+      <c r="K46" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="4" t="str">
+      <c r="H47" s="2"/>
+      <c r="I47" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D47,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I47" s="3" t="e">
+      <c r="J47" s="3" t="e">
         <f>VLOOKUP(C47,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J47" s="4" t="e">
+      <c r="K47" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="4" t="str">
+      <c r="H48" s="2"/>
+      <c r="I48" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D48,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I48" s="3" t="e">
+      <c r="J48" s="3" t="e">
         <f>VLOOKUP(C48,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J48" s="4" t="e">
+      <c r="K48" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="4" t="str">
+      <c r="H49" s="2"/>
+      <c r="I49" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D49,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I49" s="3" t="e">
+      <c r="J49" s="3" t="e">
         <f>VLOOKUP(C49,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J49" s="4" t="e">
+      <c r="K49" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="4" t="str">
+      <c r="H50" s="2"/>
+      <c r="I50" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D50,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I50" s="3" t="e">
+      <c r="J50" s="3" t="e">
         <f>VLOOKUP(C50,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J50" s="4" t="e">
+      <c r="K50" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K50" s="3">
+      <c r="L50" s="3">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="4" t="str">
+      <c r="H51" s="2"/>
+      <c r="I51" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D51,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I51" s="3" t="e">
+      <c r="J51" s="3" t="e">
         <f>VLOOKUP(C51,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J51" s="4" t="e">
+      <c r="K51" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K51" s="3">
+      <c r="L51" s="3">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="4" t="str">
+      <c r="H52" s="2"/>
+      <c r="I52" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D52,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I52" s="3" t="e">
+      <c r="J52" s="3" t="e">
         <f>VLOOKUP(C52,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J52" s="4" t="e">
+      <c r="K52" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="4" t="str">
+      <c r="H53" s="2"/>
+      <c r="I53" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D53,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I53" s="3" t="e">
+      <c r="J53" s="3" t="e">
         <f>VLOOKUP(C53,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J53" s="4" t="e">
+      <c r="K53" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K53" s="3">
+      <c r="L53" s="3">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="4" t="str">
+      <c r="H54" s="2"/>
+      <c r="I54" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D54,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I54" s="3" t="e">
+      <c r="J54" s="3" t="e">
         <f>VLOOKUP(C54,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J54" s="4" t="e">
+      <c r="K54" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="4" t="str">
+      <c r="H55" s="2"/>
+      <c r="I55" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D55,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I55" s="3" t="e">
+      <c r="J55" s="3" t="e">
         <f>VLOOKUP(C55,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J55" s="4" t="e">
+      <c r="K55" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K55" s="3">
+      <c r="L55" s="3">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="4" t="str">
+      <c r="H56" s="2"/>
+      <c r="I56" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D56,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I56" s="3" t="e">
+      <c r="J56" s="3" t="e">
         <f>VLOOKUP(C56,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J56" s="4" t="e">
+      <c r="K56" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K56" s="3">
+      <c r="L56" s="3">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="4" t="str">
+      <c r="H57" s="2"/>
+      <c r="I57" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D57,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I57" s="3" t="e">
+      <c r="J57" s="3" t="e">
         <f>VLOOKUP(C57,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J57" s="4" t="e">
+      <c r="K57" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="4" t="str">
+      <c r="H58" s="2"/>
+      <c r="I58" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D58,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I58" s="3" t="e">
+      <c r="J58" s="3" t="e">
         <f>VLOOKUP(C58,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J58" s="4" t="e">
+      <c r="K58" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="4" t="str">
+      <c r="H59" s="2"/>
+      <c r="I59" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D59,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I59" s="3" t="e">
+      <c r="J59" s="3" t="e">
         <f>VLOOKUP(C59,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J59" s="4" t="e">
+      <c r="K59" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="4" t="str">
+      <c r="H60" s="2"/>
+      <c r="I60" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D60,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I60" s="3" t="e">
+      <c r="J60" s="3" t="e">
         <f>VLOOKUP(C60,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J60" s="4" t="e">
+      <c r="K60" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="4" t="str">
+      <c r="H61" s="2"/>
+      <c r="I61" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D61,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I61" s="3" t="e">
+      <c r="J61" s="3" t="e">
         <f>VLOOKUP(C61,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J61" s="4" t="e">
+      <c r="K61" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="4" t="str">
+      <c r="H62" s="2"/>
+      <c r="I62" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D62,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I62" s="3" t="e">
+      <c r="J62" s="3" t="e">
         <f>VLOOKUP(C62,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J62" s="4" t="e">
+      <c r="K62" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="4" t="str">
+      <c r="H63" s="2"/>
+      <c r="I63" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D63,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I63" s="3" t="e">
+      <c r="J63" s="3" t="e">
         <f>VLOOKUP(C63,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J63" s="4" t="e">
+      <c r="K63" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K63" s="3">
+      <c r="L63" s="3">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="4" t="str">
+      <c r="H64" s="2"/>
+      <c r="I64" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D64,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I64" s="3" t="e">
+      <c r="J64" s="3" t="e">
         <f>VLOOKUP(C64,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J64" s="4" t="e">
+      <c r="K64" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K64" s="3">
+      <c r="L64" s="3">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="4" t="str">
+      <c r="H65" s="2"/>
+      <c r="I65" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D65,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I65" s="3" t="e">
+      <c r="J65" s="3" t="e">
         <f>VLOOKUP(C65,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J65" s="4" t="e">
+      <c r="K65" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K65" s="3">
+      <c r="L65" s="3">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="4" t="str">
+      <c r="H66" s="2"/>
+      <c r="I66" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D66,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I66" s="3" t="e">
+      <c r="J66" s="3" t="e">
         <f>VLOOKUP(C66,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J66" s="4" t="e">
-        <f t="shared" ref="J66:J70" si="6">IF(EXACT(I66,F66),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="4" t="e">
+        <f t="shared" ref="K66:K70" si="6">IF(EXACT(J66,F66),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L66" s="3">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="4" t="str">
+      <c r="H67" s="2"/>
+      <c r="I67" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D67,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I67" s="3" t="e">
+      <c r="J67" s="3" t="e">
         <f>VLOOKUP(C67,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J67" s="4" t="e">
+      <c r="K67" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="K67" s="3">
+      <c r="L67" s="3">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="4" t="str">
+      <c r="H68" s="2"/>
+      <c r="I68" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D68,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I68" s="3" t="e">
+      <c r="J68" s="3" t="e">
         <f>VLOOKUP(C68,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J68" s="4" t="e">
+      <c r="K68" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="K68" s="3">
+      <c r="L68" s="3">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="4" t="str">
+      <c r="H69" s="2"/>
+      <c r="I69" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D69,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="I69" s="3" t="e">
+      <c r="J69" s="3" t="e">
         <f>VLOOKUP(C69,[2]Hoja1!$G:$I,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J69" s="4" t="e">
+      <c r="K69" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="K69" s="3">
+      <c r="L69" s="3">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F70" s="5"/>
-      <c r="H70" s="4" t="str">
+      <c r="I70" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D70,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J70" s="4" t="str">
+      <c r="K70" s="4" t="str">
         <f t="shared" si="6"/>
         <v>ü</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K69">
+  <autoFilter ref="A1:L70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L69">
     <sortCondition ref="B2:B69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lista VEPS.xlsx
+++ b/Lista VEPS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Bot-Generador-de-VEPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Bot-Generador-de-VEPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE6BB36-A787-4CF4-8705-D41D2E1BE72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD4660-37D0-4F47-9637-2E6685EDD248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$L$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$M$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +40,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Agustín Bustos</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{F1780A30-E41C-44A5-B77F-48FF0DF5F81F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Si no se descarga en la Ubicación o nombre predefinido se debe colocar "NO"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="20">
   <si>
     <t>Nro</t>
   </si>
@@ -96,12 +130,18 @@
   <si>
     <t>C:\Users\Agustin Bustos\Desktop\Test\</t>
   </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +166,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -201,6 +254,374 @@
           <cell r="C1" t="str">
             <v>Descargado</v>
           </cell>
+        </row>
+        <row r="2">
+          <cell r="B2"/>
+          <cell r="C2"/>
+        </row>
+        <row r="3">
+          <cell r="B3"/>
+          <cell r="C3"/>
+        </row>
+        <row r="4">
+          <cell r="B4"/>
+          <cell r="C4"/>
+        </row>
+        <row r="5">
+          <cell r="B5"/>
+          <cell r="C5"/>
+        </row>
+        <row r="6">
+          <cell r="B6"/>
+          <cell r="C6"/>
+        </row>
+        <row r="7">
+          <cell r="B7"/>
+          <cell r="C7"/>
+        </row>
+        <row r="8">
+          <cell r="B8"/>
+          <cell r="C8"/>
+        </row>
+        <row r="9">
+          <cell r="B9"/>
+          <cell r="C9"/>
+        </row>
+        <row r="10">
+          <cell r="B10"/>
+          <cell r="C10"/>
+        </row>
+        <row r="11">
+          <cell r="B11"/>
+          <cell r="C11"/>
+        </row>
+        <row r="12">
+          <cell r="B12"/>
+          <cell r="C12"/>
+        </row>
+        <row r="13">
+          <cell r="B13"/>
+          <cell r="C13"/>
+        </row>
+        <row r="14">
+          <cell r="B14"/>
+          <cell r="C14"/>
+        </row>
+        <row r="15">
+          <cell r="B15"/>
+          <cell r="C15"/>
+        </row>
+        <row r="16">
+          <cell r="B16"/>
+          <cell r="C16"/>
+        </row>
+        <row r="17">
+          <cell r="B17"/>
+          <cell r="C17"/>
+        </row>
+        <row r="18">
+          <cell r="B18"/>
+          <cell r="C18"/>
+        </row>
+        <row r="19">
+          <cell r="B19"/>
+          <cell r="C19"/>
+        </row>
+        <row r="20">
+          <cell r="B20"/>
+          <cell r="C20"/>
+        </row>
+        <row r="21">
+          <cell r="B21"/>
+          <cell r="C21"/>
+        </row>
+        <row r="22">
+          <cell r="B22"/>
+          <cell r="C22"/>
+        </row>
+        <row r="23">
+          <cell r="B23"/>
+          <cell r="C23"/>
+        </row>
+        <row r="24">
+          <cell r="B24"/>
+          <cell r="C24"/>
+        </row>
+        <row r="25">
+          <cell r="B25"/>
+          <cell r="C25"/>
+        </row>
+        <row r="26">
+          <cell r="B26"/>
+          <cell r="C26"/>
+        </row>
+        <row r="27">
+          <cell r="B27"/>
+          <cell r="C27"/>
+        </row>
+        <row r="28">
+          <cell r="B28"/>
+          <cell r="C28"/>
+        </row>
+        <row r="29">
+          <cell r="B29"/>
+          <cell r="C29"/>
+        </row>
+        <row r="30">
+          <cell r="B30"/>
+          <cell r="C30"/>
+        </row>
+        <row r="31">
+          <cell r="B31"/>
+          <cell r="C31"/>
+        </row>
+        <row r="32">
+          <cell r="B32"/>
+          <cell r="C32"/>
+        </row>
+        <row r="33">
+          <cell r="B33"/>
+          <cell r="C33"/>
+        </row>
+        <row r="34">
+          <cell r="B34"/>
+          <cell r="C34"/>
+        </row>
+        <row r="35">
+          <cell r="B35"/>
+          <cell r="C35"/>
+        </row>
+        <row r="36">
+          <cell r="B36"/>
+          <cell r="C36"/>
+        </row>
+        <row r="37">
+          <cell r="B37"/>
+          <cell r="C37"/>
+        </row>
+        <row r="38">
+          <cell r="B38"/>
+          <cell r="C38"/>
+        </row>
+        <row r="39">
+          <cell r="B39"/>
+          <cell r="C39"/>
+        </row>
+        <row r="40">
+          <cell r="B40"/>
+          <cell r="C40"/>
+        </row>
+        <row r="41">
+          <cell r="B41"/>
+          <cell r="C41"/>
+        </row>
+        <row r="42">
+          <cell r="B42"/>
+          <cell r="C42"/>
+        </row>
+        <row r="43">
+          <cell r="B43"/>
+          <cell r="C43"/>
+        </row>
+        <row r="44">
+          <cell r="B44"/>
+          <cell r="C44"/>
+        </row>
+        <row r="45">
+          <cell r="B45"/>
+          <cell r="C45"/>
+        </row>
+        <row r="46">
+          <cell r="B46"/>
+          <cell r="C46"/>
+        </row>
+        <row r="47">
+          <cell r="B47"/>
+          <cell r="C47"/>
+        </row>
+        <row r="48">
+          <cell r="B48"/>
+          <cell r="C48"/>
+        </row>
+        <row r="49">
+          <cell r="B49"/>
+          <cell r="C49"/>
+        </row>
+        <row r="50">
+          <cell r="B50"/>
+          <cell r="C50"/>
+        </row>
+        <row r="51">
+          <cell r="B51"/>
+          <cell r="C51"/>
+        </row>
+        <row r="52">
+          <cell r="B52"/>
+          <cell r="C52"/>
+        </row>
+        <row r="53">
+          <cell r="B53"/>
+          <cell r="C53"/>
+        </row>
+        <row r="54">
+          <cell r="B54"/>
+          <cell r="C54"/>
+        </row>
+        <row r="55">
+          <cell r="B55"/>
+          <cell r="C55"/>
+        </row>
+        <row r="56">
+          <cell r="B56"/>
+          <cell r="C56"/>
+        </row>
+        <row r="57">
+          <cell r="B57"/>
+          <cell r="C57"/>
+        </row>
+        <row r="58">
+          <cell r="B58"/>
+          <cell r="C58"/>
+        </row>
+        <row r="59">
+          <cell r="B59"/>
+          <cell r="C59"/>
+        </row>
+        <row r="60">
+          <cell r="B60"/>
+          <cell r="C60"/>
+        </row>
+        <row r="61">
+          <cell r="B61"/>
+          <cell r="C61"/>
+        </row>
+        <row r="62">
+          <cell r="B62"/>
+          <cell r="C62"/>
+        </row>
+        <row r="63">
+          <cell r="B63"/>
+          <cell r="C63"/>
+        </row>
+        <row r="64">
+          <cell r="B64"/>
+          <cell r="C64"/>
+        </row>
+        <row r="65">
+          <cell r="B65"/>
+          <cell r="C65"/>
+        </row>
+        <row r="66">
+          <cell r="B66"/>
+          <cell r="C66"/>
+        </row>
+        <row r="67">
+          <cell r="B67"/>
+          <cell r="C67"/>
+        </row>
+        <row r="68">
+          <cell r="B68"/>
+          <cell r="C68"/>
+        </row>
+        <row r="69">
+          <cell r="B69"/>
+          <cell r="C69"/>
+        </row>
+        <row r="70">
+          <cell r="B70"/>
+          <cell r="C70"/>
+        </row>
+        <row r="71">
+          <cell r="B71"/>
+          <cell r="C71"/>
+        </row>
+        <row r="72">
+          <cell r="B72"/>
+          <cell r="C72"/>
+        </row>
+        <row r="73">
+          <cell r="B73"/>
+          <cell r="C73"/>
+        </row>
+        <row r="74">
+          <cell r="B74"/>
+          <cell r="C74"/>
+        </row>
+        <row r="75">
+          <cell r="B75"/>
+          <cell r="C75"/>
+        </row>
+        <row r="76">
+          <cell r="B76"/>
+          <cell r="C76"/>
+        </row>
+        <row r="77">
+          <cell r="B77"/>
+          <cell r="C77"/>
+        </row>
+        <row r="78">
+          <cell r="B78"/>
+          <cell r="C78"/>
+        </row>
+        <row r="79">
+          <cell r="B79"/>
+          <cell r="C79"/>
+        </row>
+        <row r="80">
+          <cell r="B80"/>
+          <cell r="C80"/>
+        </row>
+        <row r="81">
+          <cell r="B81"/>
+          <cell r="C81"/>
+        </row>
+        <row r="82">
+          <cell r="B82"/>
+          <cell r="C82"/>
+        </row>
+        <row r="83">
+          <cell r="B83"/>
+          <cell r="C83"/>
+        </row>
+        <row r="84">
+          <cell r="B84"/>
+          <cell r="C84"/>
+        </row>
+        <row r="85">
+          <cell r="B85"/>
+          <cell r="C85"/>
+        </row>
+        <row r="86">
+          <cell r="B86"/>
+          <cell r="C86"/>
+        </row>
+        <row r="87">
+          <cell r="B87"/>
+          <cell r="C87"/>
+        </row>
+        <row r="88">
+          <cell r="B88"/>
+          <cell r="C88"/>
+        </row>
+        <row r="89">
+          <cell r="B89"/>
+          <cell r="C89"/>
+        </row>
+        <row r="90">
+          <cell r="B90"/>
+          <cell r="C90"/>
+        </row>
+        <row r="91">
+          <cell r="B91"/>
+          <cell r="C91"/>
+        </row>
+        <row r="92">
+          <cell r="B92"/>
+          <cell r="C92"/>
+        </row>
+        <row r="93">
+          <cell r="B93"/>
+          <cell r="C93"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -1387,12 +1808,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,13 +1824,13 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,19 +1856,22 @@
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1474,24 +1898,27 @@
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D2,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="K2" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C2,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K2" s="4" t="str">
-        <f t="shared" ref="K2:K33" si="1">IF(EXACT(J2,F2),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="L2" s="3">
-        <f t="shared" ref="L2:L33" si="2">ROW(A2)</f>
+      <c r="L2" s="4" t="str">
+        <f t="shared" ref="L2:L33" si="1">IF(EXACT(K2,F2),"ü","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" ref="M2:M33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1518,24 +1945,27 @@
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="str">
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D3,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="K3" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C3,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K3" s="4" t="str">
+      <c r="L3" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1560,24 +1990,27 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="4" t="str">
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D4,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="K4" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C4,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K4" s="4" t="str">
+      <c r="L4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1602,24 +2035,27 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="4" t="str">
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D5,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J5" s="3" t="str">
+      <c r="K5" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C5,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K5" s="4" t="str">
+      <c r="L5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1644,24 +2080,27 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="4" t="str">
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D6,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="K6" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C6,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="L6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1686,24 +2125,27 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="4" t="str">
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D7,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="K7" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C7,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="L7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1728,24 +2170,27 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="4" t="str">
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D8,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J8" s="3" t="str">
+      <c r="K8" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C8,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="L8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1770,24 +2215,27 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="4" t="str">
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D9,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J9" s="3" t="str">
+      <c r="K9" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C9,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="L9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1812,24 +2260,27 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="4" t="str">
+      <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D10,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J10" s="3" t="str">
+      <c r="K10" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C10,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K10" s="4" t="str">
+      <c r="L10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1854,24 +2305,27 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="4" t="str">
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D11,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J11" s="3" t="str">
+      <c r="K11" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C11,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K11" s="4" t="str">
+      <c r="L11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1895,24 +2349,27 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="4" t="str">
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D12,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J12" s="3" t="str">
+      <c r="K12" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C12,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K12" s="4" t="str">
+      <c r="L12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1936,24 +2393,27 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="4" t="str">
+      <c r="I13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D13,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="K13" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C13,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K13" s="4" t="str">
+      <c r="L13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1974,24 +2434,27 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="4" t="str">
+      <c r="I14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D14,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J14" s="3" t="str">
+      <c r="K14" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C14,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K14" s="4" t="str">
+      <c r="L14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2012,24 +2475,27 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="4" t="str">
+      <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D15,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J15" s="3" t="str">
+      <c r="K15" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C15,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K15" s="4" t="str">
+      <c r="L15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2050,24 +2516,27 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="4" t="str">
+      <c r="I16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D16,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J16" s="3" t="str">
+      <c r="K16" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C16,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K16" s="4" t="str">
+      <c r="L16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2088,24 +2557,27 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="4" t="str">
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D17,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J17" s="3" t="str">
+      <c r="K17" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C17,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K17" s="4" t="str">
+      <c r="L17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2126,24 +2598,27 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="4" t="str">
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D18,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J18" s="3" t="str">
+      <c r="K18" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C18,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K18" s="4" t="str">
+      <c r="L18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2164,24 +2639,27 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="4" t="str">
+      <c r="I19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D19,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J19" s="3" t="str">
+      <c r="K19" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C19,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K19" s="4" t="str">
+      <c r="L19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2202,24 +2680,27 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="4" t="str">
+      <c r="I20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D20,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J20" s="3" t="str">
+      <c r="K20" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C20,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K20" s="4" t="str">
+      <c r="L20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2240,24 +2721,27 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="4" t="str">
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D21,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="3" t="str">
+      <c r="K21" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C21,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K21" s="4" t="str">
+      <c r="L21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2278,24 +2762,27 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="4" t="str">
+      <c r="I22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D22,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J22" s="3" t="str">
+      <c r="K22" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C22,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K22" s="4" t="str">
+      <c r="L22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2316,24 +2803,27 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="4" t="str">
+      <c r="I23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D23,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="3" t="str">
+      <c r="K23" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C23,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K23" s="4" t="str">
+      <c r="L23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2354,24 +2844,27 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="4" t="str">
+      <c r="I24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D24,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J24" s="3" t="str">
+      <c r="K24" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C24,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K24" s="4" t="str">
+      <c r="L24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2392,24 +2885,27 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="4" t="str">
+      <c r="I25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D25,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="3" t="str">
+      <c r="K25" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C25,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K25" s="4" t="str">
+      <c r="L25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2430,24 +2926,27 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="4" t="str">
+      <c r="I26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D26,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J26" s="3" t="str">
+      <c r="K26" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C26,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K26" s="4" t="str">
+      <c r="L26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2468,24 +2967,27 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="4" t="str">
+      <c r="I27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D27,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J27" s="3" t="str">
+      <c r="K27" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C27,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K27" s="4" t="str">
+      <c r="L27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2506,24 +3008,27 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="4" t="str">
+      <c r="I28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D28,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J28" s="3" t="str">
+      <c r="K28" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C28,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K28" s="4" t="str">
+      <c r="L28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2544,24 +3049,27 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="4" t="str">
+      <c r="I29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D29,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J29" s="3" t="str">
+      <c r="K29" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C29,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K29" s="4" t="str">
+      <c r="L29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2582,24 +3090,27 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="4" t="str">
+      <c r="I30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D30,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J30" s="3" t="str">
+      <c r="K30" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C30,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K30" s="4" t="str">
+      <c r="L30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2620,24 +3131,27 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="4" t="str">
+      <c r="I31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D31,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J31" s="3" t="str">
+      <c r="K31" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C31,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K31" s="4" t="str">
+      <c r="L31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2658,24 +3172,27 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="4" t="str">
+      <c r="I32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D32,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J32" s="3" t="str">
+      <c r="K32" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C32,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K32" s="4" t="str">
+      <c r="L32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2696,24 +3213,27 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="4" t="str">
+      <c r="I33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D33,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J33" s="3" t="str">
+      <c r="K33" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C33,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K33" s="4" t="str">
+      <c r="L33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" ref="A34:A70" si="6">RIGHT(D34,1)</f>
         <v>0</v>
@@ -2734,24 +3254,27 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="4" t="str">
+      <c r="I34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D34,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J34" s="3" t="str">
+      <c r="K34" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C34,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K34" s="4" t="str">
-        <f t="shared" ref="K34:K65" si="7">IF(EXACT(J34,F34),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" ref="L34:L70" si="8">ROW(A34)</f>
+      <c r="L34" s="4" t="str">
+        <f t="shared" ref="L34:L65" si="7">IF(EXACT(K34,F34),"ü","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" ref="M34:M70" si="8">ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2772,24 +3295,27 @@
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="4" t="str">
+      <c r="I35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D35,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J35" s="3" t="str">
+      <c r="K35" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C35,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K35" s="4" t="str">
+      <c r="L35" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2810,24 +3336,27 @@
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="4" t="str">
+      <c r="I36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D36,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J36" s="3" t="str">
+      <c r="K36" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C36,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K36" s="4" t="str">
+      <c r="L36" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L36" s="3">
+      <c r="M36" s="3">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2848,24 +3377,27 @@
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="4" t="str">
+      <c r="I37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D37,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J37" s="3" t="str">
+      <c r="K37" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C37,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K37" s="4" t="str">
+      <c r="L37" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L37" s="3">
+      <c r="M37" s="3">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2886,24 +3418,27 @@
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="4" t="str">
+      <c r="I38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D38,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J38" s="3" t="str">
+      <c r="K38" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C38,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K38" s="4" t="str">
+      <c r="L38" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L38" s="3">
+      <c r="M38" s="3">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2924,24 +3459,27 @@
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="4" t="str">
+      <c r="I39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D39,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J39" s="3" t="str">
+      <c r="K39" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C39,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K39" s="4" t="str">
+      <c r="L39" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L39" s="3">
+      <c r="M39" s="3">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2962,24 +3500,27 @@
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="4" t="str">
+      <c r="I40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D40,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J40" s="3" t="str">
+      <c r="K40" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C40,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K40" s="4" t="str">
+      <c r="L40" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L40" s="3">
+      <c r="M40" s="3">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3000,24 +3541,27 @@
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="4" t="str">
+      <c r="I41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D41,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J41" s="3" t="str">
+      <c r="K41" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C41,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K41" s="4" t="str">
+      <c r="L41" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3038,24 +3582,27 @@
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="4" t="str">
+      <c r="I42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D42,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J42" s="3" t="str">
+      <c r="K42" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C42,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K42" s="4" t="str">
+      <c r="L42" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3076,24 +3623,27 @@
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="4" t="str">
+      <c r="I43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D43,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J43" s="3" t="str">
+      <c r="K43" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C43,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K43" s="4" t="str">
+      <c r="L43" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3114,24 +3664,27 @@
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="4" t="str">
+      <c r="I44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D44,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J44" s="3" t="str">
+      <c r="K44" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C44,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K44" s="4" t="str">
+      <c r="L44" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3152,24 +3705,27 @@
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="4" t="str">
+      <c r="I45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D45,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J45" s="3" t="str">
+      <c r="K45" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C45,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K45" s="4" t="str">
+      <c r="L45" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3190,24 +3746,27 @@
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="4" t="str">
+      <c r="I46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D46,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J46" s="3" t="str">
+      <c r="K46" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C46,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K46" s="4" t="str">
+      <c r="L46" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3228,24 +3787,27 @@
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="4" t="str">
+      <c r="I47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D47,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J47" s="3" t="str">
+      <c r="K47" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C47,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K47" s="4" t="str">
+      <c r="L47" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3266,24 +3828,27 @@
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="4" t="str">
+      <c r="I48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D48,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J48" s="3" t="str">
+      <c r="K48" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C48,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K48" s="4" t="str">
+      <c r="L48" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3304,24 +3869,27 @@
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="4" t="str">
+      <c r="I49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D49,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J49" s="3" t="str">
+      <c r="K49" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C49,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K49" s="4" t="str">
+      <c r="L49" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3342,24 +3910,27 @@
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="4" t="str">
+      <c r="I50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D50,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J50" s="3" t="str">
+      <c r="K50" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C50,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K50" s="4" t="str">
+      <c r="L50" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L50" s="3">
+      <c r="M50" s="3">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3380,24 +3951,27 @@
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="4" t="str">
+      <c r="I51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D51,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J51" s="3" t="str">
+      <c r="K51" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C51,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K51" s="4" t="str">
+      <c r="L51" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L51" s="3">
+      <c r="M51" s="3">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3418,24 +3992,27 @@
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="4" t="str">
+      <c r="I52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D52,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J52" s="3" t="str">
+      <c r="K52" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C52,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K52" s="4" t="str">
+      <c r="L52" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3456,24 +4033,27 @@
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="4" t="str">
+      <c r="I53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D53,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J53" s="3" t="str">
+      <c r="K53" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C53,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K53" s="4" t="str">
+      <c r="L53" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L53" s="3">
+      <c r="M53" s="3">
         <f t="shared" si="8"/>
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3494,24 +4074,27 @@
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="4" t="str">
+      <c r="I54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D54,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J54" s="3" t="str">
+      <c r="K54" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C54,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K54" s="4" t="str">
+      <c r="L54" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3532,24 +4115,27 @@
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="4" t="str">
+      <c r="I55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D55,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J55" s="3" t="str">
+      <c r="K55" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C55,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K55" s="4" t="str">
+      <c r="L55" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L55" s="3">
+      <c r="M55" s="3">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3570,24 +4156,27 @@
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="4" t="str">
+      <c r="I56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D56,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J56" s="3" t="str">
+      <c r="K56" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C56,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K56" s="4" t="str">
+      <c r="L56" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L56" s="3">
+      <c r="M56" s="3">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3608,24 +4197,27 @@
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="4" t="str">
+      <c r="I57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D57,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J57" s="3" t="str">
+      <c r="K57" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C57,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K57" s="4" t="str">
+      <c r="L57" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3646,24 +4238,27 @@
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="4" t="str">
+      <c r="I58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D58,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J58" s="3" t="str">
+      <c r="K58" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C58,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K58" s="4" t="str">
+      <c r="L58" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3684,24 +4279,27 @@
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="4" t="str">
+      <c r="I59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D59,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J59" s="3" t="str">
+      <c r="K59" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C59,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K59" s="4" t="str">
+      <c r="L59" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3722,24 +4320,27 @@
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="4" t="str">
+      <c r="I60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D60,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J60" s="3" t="str">
+      <c r="K60" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C60,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K60" s="4" t="str">
+      <c r="L60" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3760,24 +4361,27 @@
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="4" t="str">
+      <c r="I61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D61,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J61" s="3" t="str">
+      <c r="K61" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C61,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K61" s="4" t="str">
+      <c r="L61" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <f t="shared" si="8"/>
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3798,24 +4402,27 @@
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="4" t="str">
+      <c r="I62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D62,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J62" s="3" t="str">
+      <c r="K62" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C62,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K62" s="4" t="str">
+      <c r="L62" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <f t="shared" si="8"/>
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3836,24 +4443,27 @@
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="4" t="str">
+      <c r="I63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D63,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J63" s="3" t="str">
+      <c r="K63" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C63,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K63" s="4" t="str">
+      <c r="L63" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L63" s="3">
+      <c r="M63" s="3">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3874,24 +4484,27 @@
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="4" t="str">
+      <c r="I64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D64,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J64" s="3" t="str">
+      <c r="K64" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C64,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K64" s="4" t="str">
+      <c r="L64" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L64" s="3">
+      <c r="M64" s="3">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3912,24 +4525,27 @@
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="4" t="str">
+      <c r="I65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D65,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J65" s="3" t="str">
+      <c r="K65" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C65,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K65" s="4" t="str">
+      <c r="L65" s="4" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
-      <c r="L65" s="3">
+      <c r="M65" s="3">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3950,24 +4566,27 @@
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="4" t="str">
+      <c r="I66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D66,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J66" s="3" t="str">
+      <c r="K66" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C66,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K66" s="4" t="str">
-        <f t="shared" ref="K66:K70" si="9">IF(EXACT(J66,F66),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="4" t="str">
+        <f t="shared" ref="L66:L70" si="9">IF(EXACT(K66,F66),"ü","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M66" s="3">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3988,24 +4607,27 @@
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="4" t="str">
+      <c r="I67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D67,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J67" s="3" t="str">
+      <c r="K67" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C67,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K67" s="4" t="str">
+      <c r="L67" s="4" t="str">
         <f t="shared" si="9"/>
         <v>x</v>
       </c>
-      <c r="L67" s="3">
+      <c r="M67" s="3">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4026,24 +4648,27 @@
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="4" t="str">
+      <c r="I68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D68,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J68" s="3" t="str">
+      <c r="K68" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C68,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K68" s="4" t="str">
+      <c r="L68" s="4" t="str">
         <f t="shared" si="9"/>
         <v>x</v>
       </c>
-      <c r="L68" s="3">
+      <c r="M68" s="3">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4064,24 +4689,27 @@
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="4" t="str">
+      <c r="I69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D69,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J69" s="3" t="str">
+      <c r="K69" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C69,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K69" s="4" t="str">
+      <c r="L69" s="4" t="str">
         <f t="shared" si="9"/>
         <v>x</v>
       </c>
-      <c r="L69" s="3">
+      <c r="M69" s="3">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4100,29 +4728,38 @@
         <f t="shared" si="11"/>
         <v>Clave 69</v>
       </c>
-      <c r="I70" s="4" t="str">
+      <c r="I70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="4" t="str">
         <f>IFERROR(VLOOKUP(TEXT(D70,"00000000000"),[1]Control!$B:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="J70" s="3" t="str">
+      <c r="K70" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C70,[2]Hoja1!$G:$I,3,0),"")</f>
         <v/>
       </c>
-      <c r="K70" s="4" t="str">
+      <c r="L70" s="4" t="str">
         <f t="shared" si="9"/>
         <v>x</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L69">
+  <autoFilter ref="A1:M70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M69">
     <sortCondition ref="B2:B69"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I70" xr:uid="{FB027CBE-DD44-4E27-9545-B1277F6A5E32}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>